--- a/testmultisheet.xlsx
+++ b/testmultisheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdumont\Downloads\Statistical-Performance-Measures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Statistical-Performance-Measures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA1A206-9E63-4479-8226-A6802B06E48C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0301DF7D-CCCD-42E0-A1B2-4C73160B2D8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27390" yWindow="600" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{DAC85A25-CBA1-40C0-825E-5A57AF038682}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DAC85A25-CBA1-40C0-825E-5A57AF038682}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
   <si>
     <t>Date Time</t>
   </si>
@@ -62,6 +62,21 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>re</t>
   </si>
 </sst>
 </file>
@@ -437,18 +452,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CE65C4-2295-4E3F-89C2-5914BF8AA104}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L4"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,19 +486,34 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>40728.573611111111</v>
       </c>
@@ -502,24 +534,40 @@
         <f>SUM(E2:E4)/3</f>
         <v>0.76000000000000012</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2">
+        <f>((B2-G2)*(E2-H2)+(B3-G2)*(E3-H2)+(B4-G2)*(E4-H2))/(SQRT((B2-G2)^2+(B3-G2)^2+(B4-G2)^2)*SQRT((E2-H2)^2+(E3-H2)^2+(E4-H2)^2))</f>
+        <v>1.1949640252593674E-16</v>
+      </c>
+      <c r="J2">
+        <f>I2^2</f>
+        <v>1.42793902166407E-32</v>
+      </c>
+      <c r="K2" s="6">
         <f>1-(((B2-E2)^2+(B3-E3)^2+(B4-E4)^2)/((B2-G2)^2+(B3-G2)^2+(B4-G2)^2))</f>
         <v>-36547.744931168403</v>
       </c>
-      <c r="J2">
+      <c r="L2">
+        <f>1-(((B2-E2)^2+(B3-E3)^2+(B4-E4)^2)/((ABS(E2-G2)+ABS(B2-G2))^2+(ABS(E3-G2)+ABS(B3-G2))^2+(ABS(E4-G2)+ABS(B4-G2))^2))</f>
+        <v>9.065988499471378E-3</v>
+      </c>
+      <c r="M2">
+        <f>SQRT((1/3)*((B2-E2)^2+(B3-E3)^2+(B4-E4)^2))</f>
+        <v>0.78681665018466185</v>
+      </c>
+      <c r="N2">
+        <f>(1/3)*(ABS(B2-E2)+ABS(B3-E3)+ABS(B4-E4))</f>
+        <v>0.72983799744930322</v>
+      </c>
+      <c r="O2">
+        <f>(SQRT(((B2-E2)^2+(B3-E3)^2+(B4-E4)^2)))/SQRT((B2-H2)^2+(B3-H2)^2+(B4-H2)^2)</f>
+        <v>1.0780531337158692</v>
+      </c>
+      <c r="Q2">
         <f>(((B2-E2)+(B3-E3)+(B4-E4))/SUM(B2:B4))*100</f>
         <v>-2419.7265954824425</v>
       </c>
-      <c r="K2">
-        <f>(SQRT(((B2-E2)^2+(B3-E3)^2+(B4-E4)^2)))/SQRT((B2-H2)^2+(B3-H2)^2+(B4-H2)^2)</f>
-        <v>1.0780531337158692</v>
-      </c>
-      <c r="L2">
-        <f>1-(((B2-E2)^2+(B3-E3)^2+(B4-E4)^2)/((ABS(E2-G2)+ABS(B2-G2))+(ABS(E3-G2)+ABS(B3-G2))+(ABS(E4-G2)+ABS(B4-G2))))</f>
-        <v>0.1562422863719819</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>40728.574999999997</v>
       </c>
@@ -533,7 +581,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>40728.576388888891</v>
       </c>
@@ -554,18 +602,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7785C6AF-C3EF-4C9B-84BE-273B5104CAC8}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,19 +636,34 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>40792.093055555553</v>
       </c>
@@ -620,24 +685,40 @@
         <f>SUM(E2:E4)/3</f>
         <v>0.24333333333333332</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2">
+        <f>((B2-G2)*(E2-H2)+(B3-G2)*(E3-H2)+(B4-G2)*(E4-H2))/(SQRT((B2-G2)^2+(B3-G2)^2+(B4-G2)^2)*SQRT((E2-H2)^2+(E3-H2)^2+(E4-H2)^2))</f>
+        <v>1.4835979218054372E-15</v>
+      </c>
+      <c r="J2">
+        <f>I2^2</f>
+        <v>2.2010627935854122E-30</v>
+      </c>
+      <c r="K2" s="6">
         <f>1-(((B2-E2)^2+(B3-E3)^2+(B4-E4)^2)/((B2-G2)^2+(B3-G2)^2+(B4-G2)^2))</f>
         <v>-9.3549864250010393E+31</v>
       </c>
-      <c r="J2">
+      <c r="L2">
+        <f>1-(((B2-E2)^2+(B3-E3)^2+(B4-E4)^2)/((ABS(E2-G2)+ABS(B2-G2))^2+(ABS(E3-G2)+ABS(B3-G2))^2+(ABS(E4-G2)+ABS(B4-G2))^2))</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>SQRT((1/3)*((B2-E2)^2+(B3-E3)^2+(B4-E4)^2))</f>
+        <v>0.13422759956598196</v>
+      </c>
+      <c r="N2">
+        <f>(1/3)*(ABS(B2-E2)+ABS(B3-E3)+ABS(B4-E4))</f>
+        <v>0.13364689644615785</v>
+      </c>
+      <c r="O2">
+        <f>(SQRT(((B2-E2)^2+(B3-E3)^2+(B4-E4)^2)))/SQRT((B2-H2)^2+(B3-H2)^2+(B4-H2)^2)</f>
+        <v>1.0043450550313231</v>
+      </c>
+      <c r="Q2">
         <f>(((B2-E2)+(B3-E3)+(B4-E4))/SUM(B2:B4))*100</f>
         <v>-121.84450533626902</v>
       </c>
-      <c r="K2">
-        <f>(SQRT(((B2-E2)^2+(B3-E3)^2+(B4-E4)^2)))/SQRT((B2-H2)^2+(B3-H2)^2+(B4-H2)^2)</f>
-        <v>1.0043450550313231</v>
-      </c>
-      <c r="L2">
-        <f>1-(((B2-E2)^2+(B3-E3)^2+(B4-E4)^2)/((ABS(E2-G2)+ABS(B2-G2))+(ABS(E3-G2)+ABS(B3-G2))+(ABS(E4-G2)+ABS(B4-G2))))</f>
-        <v>0.86518917412718155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>40792.094444444447</v>
       </c>
@@ -652,7 +733,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>40792.095833333333</v>
       </c>
@@ -674,18 +755,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AB9E55-C01B-4DAA-A7F4-931EDF2DECB2}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,19 +789,34 @@
         <v>4</v>
       </c>
       <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>40728.569444444445</v>
       </c>
@@ -739,24 +837,40 @@
         <f>SUM(E2:E4)/3</f>
         <v>5.3333333333333337E-2</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2">
+        <f>((B2-G2)*(E2-H2)+(B3-G2)*(E3-H2)+(B4-G2)*(E4-H2))/(SQRT((B2-G2)^2+(B3-G2)^2+(B4-G2)^2)*SQRT((E2-H2)^2+(E3-H2)^2+(E4-H2)^2))</f>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="J2">
+        <f>I2^2</f>
+        <v>0.24999999999999994</v>
+      </c>
+      <c r="K2" s="6">
         <f>1-(((B2-E2)^2+(B3-E3)^2+(B4-E4)^2)/((B2-G2)^2+(B3-G2)^2+(B4-G2)^2))</f>
         <v>-349.2270886409479</v>
       </c>
-      <c r="J2">
+      <c r="L2">
+        <f>1-(((B2-E2)^2+(B3-E3)^2+(B4-E4)^2)/((ABS(E2-G2)+ABS(B2-G2))^2+(ABS(E3-G2)+ABS(B3-G2))^2+(ABS(E4-G2)+ABS(B4-G2))^2))</f>
+        <v>0.11062320421949146</v>
+      </c>
+      <c r="M2">
+        <f>SQRT((1/3)*((B2-E2)^2+(B3-E3)^2+(B4-E4)^2))</f>
+        <v>7.7021535879190306E-2</v>
+      </c>
+      <c r="N2">
+        <f>(1/3)*(ABS(B2-E2)+ABS(B3-E3)+ABS(B4-E4))</f>
+        <v>6.1447203202682696E-2</v>
+      </c>
+      <c r="O2">
+        <f>(SQRT(((B2-E2)^2+(B3-E3)^2+(B4-E4)^2)))/SQRT((B2-H2)^2+(B3-H2)^2+(B4-H2)^2)</f>
+        <v>3.2727773751228959</v>
+      </c>
+      <c r="Q2">
         <f>(((B2-E2)+(B3-E3)+(B4-E4))/SUM(B2:B4))*100</f>
         <v>-76.822918981224021</v>
       </c>
-      <c r="K2">
-        <f>(SQRT(((B2-E2)^2+(B3-E3)^2+(B4-E4)^2)))/SQRT((B2-H2)^2+(B3-H2)^2+(B4-H2)^2)</f>
-        <v>3.2727773751228959</v>
-      </c>
-      <c r="L2">
-        <f>1-(((B2-E2)^2+(B3-E3)^2+(B4-E4)^2)/((ABS(E2-G2)+ABS(B2-G2))+(ABS(E3-G2)+ABS(B3-G2))+(ABS(E4-G2)+ABS(B4-G2))))</f>
-        <v>0.91181018307280293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>40728.570833333331</v>
       </c>
@@ -770,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>40728.572222222225</v>
       </c>
